--- a/biology/Zoologie/Eresus_sandaliatus/Eresus_sandaliatus.xlsx
+++ b/biology/Zoologie/Eresus_sandaliatus/Eresus_sandaliatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eresus sandaliatus est une espèce d'araignées aranéomorphes de la famille des Eresidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eresus sandaliatus est une espèce d'araignées aranéomorphes de la famille des Eresidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Europe[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Europe.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 6 à 9 mm et les femelles de 10 à 16 mm[2],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 6 à 9 mm et les femelles de 10 à 16 mm,.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Martini &amp; Goeze, 1778 : D. Martin Listers Naturgeschichte der Spinnen überhaupt und der Engelländischen Spinnen insonderheit aus dem Lateinischen übersetzt, und mit Anmerkungen vermehrt von D. Friedrich Heinrich Wilhelm Martini nach dessen Handschrift aber zum Druck befördert, und mit neuen Zusätzen versehen von Johann August Ephraim Goeze. Bey Christoph August Reußner, Quedlinburg und Blankenburg p. 1-302 (texte intégral).</t>
         </is>
